--- a/GameConfig/score.xlsx
+++ b/GameConfig/score.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BCD8F8-5FDB-47D1-94CF-EDEDE9FEFADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>min</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第一行写字段注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,28 +71,228 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">第三行写字段类型(支持 float string int bool) </t>
+      <t xml:space="preserve">第三行写字段类型 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(id字段只支持 string int )</t>
+      <t>(id字段只支持 string)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(支持 float string int bool 数组float[] string[] int[] bool[] 数组值用(;)分割)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_11001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_11002</t>
+  </si>
+  <si>
+    <t>level_11003</t>
+  </si>
+  <si>
+    <t>level_11004</t>
+  </si>
+  <si>
+    <t>level_11005</t>
+  </si>
+  <si>
+    <t>level_11006</t>
+  </si>
+  <si>
+    <t>level_11007</t>
+  </si>
+  <si>
+    <t>level_11008</t>
+  </si>
+  <si>
+    <t>level_11009</t>
+  </si>
+  <si>
+    <t>level_11010</t>
+  </si>
+  <si>
+    <t>level_11011</t>
+  </si>
+  <si>
+    <t>level_11012</t>
+  </si>
+  <si>
+    <t>level_11013</t>
+  </si>
+  <si>
+    <t>level_11014</t>
+  </si>
+  <si>
+    <t>level_11015</t>
+  </si>
+  <si>
+    <t>level_11016</t>
+  </si>
+  <si>
+    <t>level_11017</t>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>lowest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0356</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0357</t>
+  </si>
+  <si>
+    <t>1.0358</t>
+  </si>
+  <si>
+    <t>1.0359</t>
+  </si>
+  <si>
+    <t>1.0360</t>
+  </si>
+  <si>
+    <t>1.0361</t>
+  </si>
+  <si>
+    <t>1.0362</t>
+  </si>
+  <si>
+    <t>1.0363</t>
+  </si>
+  <si>
+    <t>1.0364</t>
+  </si>
+  <si>
+    <t>1.0365</t>
+  </si>
+  <si>
+    <t>1.0366</t>
+  </si>
+  <si>
+    <t>1.0367</t>
+  </si>
+  <si>
+    <t>1.0368</t>
+  </si>
+  <si>
+    <t>1.0369</t>
+  </si>
+  <si>
+    <t>1.0370</t>
+  </si>
+  <si>
+    <t>1.0371</t>
+  </si>
+  <si>
+    <t>1.0372</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +308,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -125,8 +317,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -142,18 +351,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -176,18 +385,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,83 +854,380 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="5" width="15.77734375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="59.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
+    </row>
+    <row r="6" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:F3"/>
+  <mergeCells count="2">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
